--- a/www/proprofs.xlsx
+++ b/www/proprofs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Clients/r/reviseR/www/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C23DFDA-F086-3A42-BB9D-ABD9579B9DD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4AC6FB-20C8-3F49-8610-A57EA054010D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="1000" windowWidth="28040" windowHeight="17440" xr2:uid="{75AEF49E-9248-134F-BD7C-8C840DEAD4B8}"/>
+    <workbookView xWindow="2400" yWindow="1000" windowWidth="33580" windowHeight="23000" xr2:uid="{75AEF49E-9248-134F-BD7C-8C840DEAD4B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="208">
   <si>
     <t>Category</t>
   </si>
@@ -653,6 +653,30 @@
   </si>
   <si>
     <t>I have a skin disorder, described as follows "A bacterial infection causing thin, roofed blisters that weep and leave a thick, yellow crust and which is highly contageous".  What is the disorder?</t>
+  </si>
+  <si>
+    <t>Possible exam category</t>
+  </si>
+  <si>
+    <t>Skeletal</t>
+  </si>
+  <si>
+    <t>Endocrine</t>
+  </si>
+  <si>
+    <t>Cardiovascular</t>
+  </si>
+  <si>
+    <t>Muscular</t>
+  </si>
+  <si>
+    <t>Histology</t>
+  </si>
+  <si>
+    <t>Lymphatic</t>
+  </si>
+  <si>
+    <t>SHN</t>
   </si>
 </sst>
 </file>
@@ -1048,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8A4190-821E-5141-8EE6-FFBFC191691E}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1061,9 +1085,10 @@
     <col min="4" max="4" width="57.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="54" style="3" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1085,8 +1110,11 @@
       <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1099,8 +1127,11 @@
       <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1113,8 +1144,11 @@
       <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -1127,8 +1161,11 @@
       <c r="D4" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1141,8 +1178,11 @@
       <c r="D5" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -1155,8 +1195,11 @@
       <c r="D6" s="3" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -1173,7 +1216,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1229,11 @@
       <c r="D8" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -1200,8 +1246,11 @@
       <c r="D9" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -1214,8 +1263,11 @@
       <c r="D10" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
@@ -1229,7 +1281,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -1243,7 +1295,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1256,8 +1308,11 @@
       <c r="D13" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
@@ -1271,7 +1326,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -1285,7 +1340,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -1298,8 +1353,11 @@
       <c r="D16" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="I16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1373,11 @@
       <c r="E17" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
@@ -1329,8 +1390,11 @@
       <c r="D18" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>11</v>
       </c>
@@ -1343,8 +1407,11 @@
       <c r="D19" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="I19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
@@ -1357,8 +1424,11 @@
       <c r="D20" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1371,8 +1441,11 @@
       <c r="D21" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -1388,8 +1461,11 @@
       <c r="E22" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -1402,8 +1478,11 @@
       <c r="D23" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="I23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>11</v>
       </c>
@@ -1416,8 +1495,11 @@
       <c r="D24" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="I24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
@@ -1431,7 +1513,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>11</v>
       </c>
@@ -1445,7 +1527,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>11</v>
       </c>
@@ -1459,7 +1541,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>11</v>
       </c>
@@ -1475,8 +1557,11 @@
       <c r="F28" s="5" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="I28" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
@@ -1489,8 +1574,11 @@
       <c r="D29" s="3" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="I29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>11</v>
       </c>
@@ -1503,8 +1591,11 @@
       <c r="D30" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="I30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>11</v>
       </c>
@@ -1518,7 +1609,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>11</v>
       </c>
@@ -1531,8 +1622,11 @@
       <c r="D32" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>11</v>
       </c>
@@ -1545,8 +1639,11 @@
       <c r="D33" s="3" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="I33" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>11</v>
       </c>
@@ -1559,8 +1656,11 @@
       <c r="D34" s="3" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="I34" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>11</v>
       </c>
@@ -1573,8 +1673,11 @@
       <c r="D35" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="I35" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>11</v>
       </c>
@@ -1588,7 +1691,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
@@ -1602,7 +1705,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>11</v>
       </c>
@@ -1616,7 +1719,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>11</v>
       </c>
@@ -1630,7 +1733,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>11</v>
       </c>
